--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,7 +43,7 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>ripped</t>
   </si>
   <si>
     <t>disappointing</t>
@@ -52,19 +52,22 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>waste</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>water</t>
   </si>
   <si>
     <t>junk</t>
@@ -73,37 +76,37 @@
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>paint</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>paint</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>di</t>
   </si>
   <si>
     <t>difficult</t>
@@ -112,10 +115,13 @@
     <t>ok</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>nothing</t>
   </si>
   <si>
     <t>though</t>
@@ -124,45 +130,42 @@
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>2</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
@@ -184,18 +190,21 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -218,9 +227,6 @@
   </si>
   <si>
     <t>friends</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,31 +730,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>55</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7954545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>0.7311827956989247</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.5471698113207547</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7464788732394366</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K7">
         <v>0.53125</v>
@@ -906,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7135922330097088</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C9">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.3442622950819672</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L9">
-        <v>420</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>420</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>800</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.2998565279770445</v>
+        <v>0.3352459016393443</v>
       </c>
       <c r="L10">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="M10">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>488</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6824324324324325</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.2614107883817428</v>
+        <v>0.2826398852223816</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>356</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6181818181818182</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.2416666666666667</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6134453781512605</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.2228915662650602</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5952380952380952</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.1865443425076453</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>266</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15">
-        <v>0.1216931216931217</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>166</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5043478260869565</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C16">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.108433734939759</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>222</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.08150744960560911</v>
+        <v>0.07712532865907099</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1048</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4888888888888889</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.03958468526930565</v>
+        <v>0.03439325113562622</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1480</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4698795180722892</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4566929133858268</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4444444444444444</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1534,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1560,7 +1566,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4166666666666667</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -1578,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1586,13 +1592,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1604,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1612,13 +1618,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3707865168539326</v>
+        <v>0.359375</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1630,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1638,13 +1644,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.328125</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1656,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1664,13 +1670,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2985781990521327</v>
+        <v>0.328125</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1682,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>148</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1690,13 +1696,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2920792079207921</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C28">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1708,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1716,13 +1722,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2735042735042735</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1734,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1742,13 +1748,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2319587628865979</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1768,13 +1774,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2244897959183673</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1786,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1794,13 +1800,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1864406779661017</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1812,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1820,13 +1826,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1811594202898551</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1838,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>226</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1846,13 +1852,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1719745222929936</v>
+        <v>0.1839762611275964</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1864,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>130</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1872,13 +1878,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1676557863501484</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C35">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1890,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>561</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1898,13 +1904,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1613924050632911</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C36">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1916,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1924,13 +1930,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1588785046728972</v>
+        <v>0.16</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1942,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>180</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1950,13 +1956,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1487341772151899</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1968,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>269</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1976,13 +1982,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.145</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>171</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2002,13 +2008,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1428571428571428</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2020,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>150</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2028,13 +2034,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1365638766519824</v>
+        <v>0.135</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>392</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2054,25 +2060,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1210374639769452</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>305</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2080,13 +2086,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1123595505617977</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2098,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2106,13 +2112,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1048387096774194</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2124,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>222</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2132,25 +2138,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1016483516483516</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>327</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2158,13 +2164,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0645879732739421</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2176,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>420</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2184,25 +2190,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.05107084019769358</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C47">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>576</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2210,25 +2216,77 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03291139240506329</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.05756578947368421</v>
+      </c>
+      <c r="C49">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>35</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.03282828282828283</v>
+      </c>
+      <c r="C50">
         <v>26</v>
       </c>
-      <c r="D48">
-        <v>30</v>
-      </c>
-      <c r="E48">
-        <v>0.13</v>
-      </c>
-      <c r="F48">
-        <v>0.87</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>764</v>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
